--- a/Contract_WIP_1.xlsx
+++ b/Contract_WIP_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Avinash Patel\Desktop\WestSim_App\WestSim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102C254C-BF7B-45D5-BF90-41393529EFF3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC5DE271-EFDE-45B7-9AFB-62E3F7726AF7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-1470" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="298">
   <si>
     <t>Date Awarded</t>
   </si>
@@ -746,6 +746,174 @@
   </si>
   <si>
     <t>2019 SEP 12</t>
+  </si>
+  <si>
+    <t>4/8/2019</t>
+  </si>
+  <si>
+    <t>SPE7M1-19-V-5883</t>
+  </si>
+  <si>
+    <t>$2,927.00</t>
+  </si>
+  <si>
+    <t>4320014742927</t>
+  </si>
+  <si>
+    <t>RING,LANTERN</t>
+  </si>
+  <si>
+    <t>Fluid Handling</t>
+  </si>
+  <si>
+    <t>333821330003</t>
+  </si>
+  <si>
+    <t>SPE4A6-19-V-083J</t>
+  </si>
+  <si>
+    <t>$3,136.00</t>
+  </si>
+  <si>
+    <t>5970251443173</t>
+  </si>
+  <si>
+    <t>ADAPTER,INSULATOR</t>
+  </si>
+  <si>
+    <t>Kongsberg</t>
+  </si>
+  <si>
+    <t>37767522</t>
+  </si>
+  <si>
+    <t>SPE7M5-19-V-7450</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>$25,514.91</t>
+  </si>
+  <si>
+    <t>5935016607704</t>
+  </si>
+  <si>
+    <t>CONNECTOR,PLUG,ELEC</t>
+  </si>
+  <si>
+    <t>GC60068-3</t>
+  </si>
+  <si>
+    <t>2019 SEP 25</t>
+  </si>
+  <si>
+    <t>SPE5EK-19-V-3779</t>
+  </si>
+  <si>
+    <t>$45.48</t>
+  </si>
+  <si>
+    <t>5340016482555</t>
+  </si>
+  <si>
+    <t>PLUG,PROTECTIVE,DUS</t>
+  </si>
+  <si>
+    <t>Indeeco</t>
+  </si>
+  <si>
+    <t>1002114</t>
+  </si>
+  <si>
+    <t>2019 AUG 06</t>
+  </si>
+  <si>
+    <t>SPE4A6-19-V-085K</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>$1,037.88</t>
+  </si>
+  <si>
+    <t>6150013923696</t>
+  </si>
+  <si>
+    <t>CABLE ASSEMBLY,SPEC</t>
+  </si>
+  <si>
+    <t>70091-2</t>
+  </si>
+  <si>
+    <t>SPE4A6-19-V-086Y</t>
+  </si>
+  <si>
+    <t>$96.00</t>
+  </si>
+  <si>
+    <t>4010015798517</t>
+  </si>
+  <si>
+    <t>ROPE,WIRE</t>
+  </si>
+  <si>
+    <t>670-001G02-02-4</t>
+  </si>
+  <si>
+    <t>SPE5EM-19-V-3777</t>
+  </si>
+  <si>
+    <t>$87.62</t>
+  </si>
+  <si>
+    <t>5330016250653</t>
+  </si>
+  <si>
+    <t>GASKET</t>
+  </si>
+  <si>
+    <t>PBM</t>
+  </si>
+  <si>
+    <t>MPRTE014</t>
+  </si>
+  <si>
+    <t>4/9/2019</t>
+  </si>
+  <si>
+    <t>SPE7M1-19-V-5901</t>
+  </si>
+  <si>
+    <t>$7,679.00</t>
+  </si>
+  <si>
+    <t>5930010938370</t>
+  </si>
+  <si>
+    <t>39412</t>
+  </si>
+  <si>
+    <t>SPE5E4-19-V-5609</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>$2,526.39</t>
+  </si>
+  <si>
+    <t>5306015703844</t>
+  </si>
+  <si>
+    <t>BOLT,ASSEMBLED SLEE</t>
+  </si>
+  <si>
+    <t>IT147B4-8</t>
+  </si>
+  <si>
+    <t>2019 OCT 11</t>
   </si>
 </sst>
 </file>
@@ -1064,9 +1232,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
@@ -1078,9 +1246,10 @@
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -2203,6 +2372,294 @@
         <v>241</v>
       </c>
     </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
+        <v>243</v>
+      </c>
+      <c r="C36" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" t="s">
+        <v>245</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>247</v>
+      </c>
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>242</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D37" t="s">
+        <v>250</v>
+      </c>
+      <c r="E37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F37" t="s">
+        <v>252</v>
+      </c>
+      <c r="G37" t="s">
+        <v>253</v>
+      </c>
+      <c r="H37" t="s">
+        <v>254</v>
+      </c>
+      <c r="I37" t="s">
+        <v>108</v>
+      </c>
+      <c r="J37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>242</v>
+      </c>
+      <c r="B38" t="s">
+        <v>255</v>
+      </c>
+      <c r="C38" t="s">
+        <v>256</v>
+      </c>
+      <c r="D38" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38" t="s">
+        <v>258</v>
+      </c>
+      <c r="F38" t="s">
+        <v>259</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>242</v>
+      </c>
+      <c r="B39" t="s">
+        <v>262</v>
+      </c>
+      <c r="C39" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" t="s">
+        <v>263</v>
+      </c>
+      <c r="E39" t="s">
+        <v>264</v>
+      </c>
+      <c r="F39" t="s">
+        <v>265</v>
+      </c>
+      <c r="G39" t="s">
+        <v>266</v>
+      </c>
+      <c r="H39" t="s">
+        <v>267</v>
+      </c>
+      <c r="I39" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>269</v>
+      </c>
+      <c r="C40" t="s">
+        <v>270</v>
+      </c>
+      <c r="D40" t="s">
+        <v>271</v>
+      </c>
+      <c r="E40" t="s">
+        <v>272</v>
+      </c>
+      <c r="F40" t="s">
+        <v>273</v>
+      </c>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" t="s">
+        <v>274</v>
+      </c>
+      <c r="I40" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>275</v>
+      </c>
+      <c r="C41" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" t="s">
+        <v>276</v>
+      </c>
+      <c r="E41" t="s">
+        <v>277</v>
+      </c>
+      <c r="F41" t="s">
+        <v>278</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41" t="s">
+        <v>279</v>
+      </c>
+      <c r="I41" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>242</v>
+      </c>
+      <c r="B42" t="s">
+        <v>280</v>
+      </c>
+      <c r="C42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>281</v>
+      </c>
+      <c r="E42" t="s">
+        <v>282</v>
+      </c>
+      <c r="F42" t="s">
+        <v>283</v>
+      </c>
+      <c r="G42" t="s">
+        <v>284</v>
+      </c>
+      <c r="H42" t="s">
+        <v>285</v>
+      </c>
+      <c r="I42" t="s">
+        <v>118</v>
+      </c>
+      <c r="J42" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" t="s">
+        <v>287</v>
+      </c>
+      <c r="C43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D43" t="s">
+        <v>288</v>
+      </c>
+      <c r="E43" t="s">
+        <v>289</v>
+      </c>
+      <c r="F43" t="s">
+        <v>87</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>290</v>
+      </c>
+      <c r="I43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>286</v>
+      </c>
+      <c r="B44" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" t="s">
+        <v>292</v>
+      </c>
+      <c r="D44" t="s">
+        <v>293</v>
+      </c>
+      <c r="E44" t="s">
+        <v>294</v>
+      </c>
+      <c r="F44" t="s">
+        <v>295</v>
+      </c>
+      <c r="G44" t="s">
+        <v>195</v>
+      </c>
+      <c r="H44" t="s">
+        <v>296</v>
+      </c>
+      <c r="I44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" t="s">
+        <v>297</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
